--- a/rally_backup.xlsx
+++ b/rally_backup.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Start-Land</t>
+          <t>Land</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -451,135 +451,324 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Belgien</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Aix-Marseille</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.02.2026</t>
+          <t>09.03.2026</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11.03.2026</t>
+          <t>16.03.2026</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Belgien</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Genf-Pays de Gex (Frankreich)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.03.2026</t>
+          <t>09.03.2026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>03.04.2026</t>
+          <t>16.03.2026</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Belgien</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Köln-Bonn</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.03.2026</t>
+          <t>12.03.2026</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>03.04.2026</t>
+          <t>19.03.2026</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Belgien</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Antwerpen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Köln-Düsseldorf</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>02.03.2026</t>
+          <t>04.03.2026</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>09.03.2026</t>
+          <t>11.03.2026</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Belgien</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Brüssel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Bielefeld</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19.03.2026</t>
+          <t>09.03.2026</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.03.2026</t>
+          <t>24.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Belgien</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brüssel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dresden</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.03.2026</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Belgien</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brüssel</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Erfurt</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.03.2026</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Belgien</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brüssel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Heidelberg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.03.2026</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Belgien</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Brüssel</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Köln-Düsseldorf</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.03.2026</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Belgien</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Brüssel</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lübeck</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.03.2026</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Belgien</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Brüssel</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Marburg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.03.2026</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.03.2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Belgien</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Brüssel</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ulm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.03.2026</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.03.2026</t>
         </is>
       </c>
     </row>
